--- a/natmiOut/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Bmp2-Bmpr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>12.0261039594636</v>
+        <v>9.163165666666666</v>
       </c>
       <c r="H2">
-        <v>12.0261039594636</v>
+        <v>27.489497</v>
       </c>
       <c r="I2">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="J2">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.47282817742026</v>
+        <v>4.750436666666666</v>
       </c>
       <c r="N2">
-        <v>4.47282817742026</v>
+        <v>14.25131</v>
       </c>
       <c r="O2">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590357</v>
       </c>
       <c r="P2">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590359</v>
       </c>
       <c r="Q2">
-        <v>53.79069665447414</v>
+        <v>43.52903816567444</v>
       </c>
       <c r="R2">
-        <v>53.79069665447414</v>
+        <v>391.76134349107</v>
       </c>
       <c r="S2">
-        <v>0.03800950364128905</v>
+        <v>0.02168878676585511</v>
       </c>
       <c r="T2">
-        <v>0.03800950364128905</v>
+        <v>0.02168878676585511</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>12.0261039594636</v>
+        <v>9.163165666666666</v>
       </c>
       <c r="H3">
-        <v>12.0261039594636</v>
+        <v>27.489497</v>
       </c>
       <c r="I3">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="J3">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>34.0294531922364</v>
+        <v>34.05277366666667</v>
       </c>
       <c r="N3">
-        <v>34.0294531922364</v>
+        <v>102.158321</v>
       </c>
       <c r="O3">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="P3">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="Q3">
-        <v>409.2417417735354</v>
+        <v>312.0312065171707</v>
       </c>
       <c r="R3">
-        <v>409.2417417735354</v>
+        <v>2808.280858654537</v>
       </c>
       <c r="S3">
-        <v>0.2891778028834071</v>
+        <v>0.1554727278072527</v>
       </c>
       <c r="T3">
-        <v>0.2891778028834071</v>
+        <v>0.1554727278072527</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>12.0261039594636</v>
+        <v>9.163165666666666</v>
       </c>
       <c r="H4">
-        <v>12.0261039594636</v>
+        <v>27.489497</v>
       </c>
       <c r="I4">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="J4">
-        <v>0.5162205682447508</v>
+        <v>0.2800251397703982</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.2447866583728</v>
+        <v>22.52994333333334</v>
       </c>
       <c r="N4">
-        <v>22.2447866583728</v>
+        <v>67.58983000000001</v>
       </c>
       <c r="O4">
-        <v>0.3661870009612443</v>
+        <v>0.3673371086668564</v>
       </c>
       <c r="P4">
-        <v>0.3661870009612443</v>
+        <v>0.3673371086668564</v>
       </c>
       <c r="Q4">
-        <v>267.5181169096801</v>
+        <v>206.4456032239456</v>
       </c>
       <c r="R4">
-        <v>267.5181169096801</v>
+        <v>1858.01042901551</v>
       </c>
       <c r="S4">
-        <v>0.1890332617200547</v>
+        <v>0.1028636251972904</v>
       </c>
       <c r="T4">
-        <v>0.1890332617200547</v>
+        <v>0.1028636251972904</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +705,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.2703408148209</v>
+        <v>12.06704733333333</v>
       </c>
       <c r="H5">
-        <v>11.2703408148209</v>
+        <v>36.201142</v>
       </c>
       <c r="I5">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="J5">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.47282817742026</v>
+        <v>4.750436666666666</v>
       </c>
       <c r="N5">
-        <v>4.47282817742026</v>
+        <v>14.25131</v>
       </c>
       <c r="O5">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590357</v>
       </c>
       <c r="P5">
-        <v>0.07363035488982679</v>
+        <v>0.07745299862590359</v>
       </c>
       <c r="Q5">
-        <v>50.41029796566053</v>
+        <v>57.32374411066888</v>
       </c>
       <c r="R5">
-        <v>50.41029796566053</v>
+        <v>515.91369699602</v>
       </c>
       <c r="S5">
-        <v>0.03562085124853774</v>
+        <v>0.02856213955164191</v>
       </c>
       <c r="T5">
-        <v>0.03562085124853774</v>
+        <v>0.02856213955164191</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +767,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.2703408148209</v>
+        <v>12.06704733333333</v>
       </c>
       <c r="H6">
-        <v>11.2703408148209</v>
+        <v>36.201142</v>
       </c>
       <c r="I6">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="J6">
-        <v>0.4837794317552492</v>
+        <v>0.3687673822623249</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.0294531922364</v>
+        <v>34.05277366666667</v>
       </c>
       <c r="N6">
-        <v>34.0294531922364</v>
+        <v>102.158321</v>
       </c>
       <c r="O6">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="P6">
-        <v>0.5601826441489289</v>
+        <v>0.5552098927072401</v>
       </c>
       <c r="Q6">
-        <v>383.5235352184993</v>
+        <v>410.9164316669535</v>
       </c>
       <c r="R6">
-        <v>383.5235352184993</v>
+        <v>3698.247885002582</v>
       </c>
       <c r="S6">
-        <v>0.2710048412655218</v>
+        <v>0.2047432987397952</v>
       </c>
       <c r="T6">
-        <v>0.2710048412655218</v>
+        <v>0.2047432987397952</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +829,247 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>12.06704733333333</v>
+      </c>
+      <c r="H7">
+        <v>36.201142</v>
+      </c>
+      <c r="I7">
+        <v>0.3687673822623249</v>
+      </c>
+      <c r="J7">
+        <v>0.3687673822623249</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>22.52994333333334</v>
+      </c>
+      <c r="N7">
+        <v>67.58983000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.3673371086668564</v>
+      </c>
+      <c r="P7">
+        <v>0.3673371086668564</v>
+      </c>
+      <c r="Q7">
+        <v>271.8698926206511</v>
+      </c>
+      <c r="R7">
+        <v>2446.82903358586</v>
+      </c>
+      <c r="S7">
+        <v>0.1354619439708878</v>
+      </c>
+      <c r="T7">
+        <v>0.1354619439708878</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.49244066666667</v>
+      </c>
+      <c r="H8">
+        <v>34.477322</v>
+      </c>
+      <c r="I8">
+        <v>0.3512074779672769</v>
+      </c>
+      <c r="J8">
+        <v>0.351207477967277</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.750436666666666</v>
+      </c>
+      <c r="N8">
+        <v>14.25131</v>
+      </c>
+      <c r="O8">
+        <v>0.07745299862590357</v>
+      </c>
+      <c r="P8">
+        <v>0.07745299862590359</v>
+      </c>
+      <c r="Q8">
+        <v>54.59411153242444</v>
+      </c>
+      <c r="R8">
+        <v>491.34700379182</v>
+      </c>
+      <c r="S8">
+        <v>0.02720207230840656</v>
+      </c>
+      <c r="T8">
+        <v>0.02720207230840657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>11.2703408148209</v>
-      </c>
-      <c r="H7">
-        <v>11.2703408148209</v>
-      </c>
-      <c r="I7">
-        <v>0.4837794317552492</v>
-      </c>
-      <c r="J7">
-        <v>0.4837794317552492</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>22.2447866583728</v>
-      </c>
-      <c r="N7">
-        <v>22.2447866583728</v>
-      </c>
-      <c r="O7">
-        <v>0.3661870009612443</v>
-      </c>
-      <c r="P7">
-        <v>0.3661870009612443</v>
-      </c>
-      <c r="Q7">
-        <v>250.7063269928424</v>
-      </c>
-      <c r="R7">
-        <v>250.7063269928424</v>
-      </c>
-      <c r="S7">
-        <v>0.1771537392411897</v>
-      </c>
-      <c r="T7">
-        <v>0.1771537392411897</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.49244066666667</v>
+      </c>
+      <c r="H9">
+        <v>34.477322</v>
+      </c>
+      <c r="I9">
+        <v>0.3512074779672769</v>
+      </c>
+      <c r="J9">
+        <v>0.351207477967277</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>34.05277366666667</v>
+      </c>
+      <c r="N9">
+        <v>102.158321</v>
+      </c>
+      <c r="O9">
+        <v>0.5552098927072401</v>
+      </c>
+      <c r="P9">
+        <v>0.5552098927072401</v>
+      </c>
+      <c r="Q9">
+        <v>391.3494808995958</v>
+      </c>
+      <c r="R9">
+        <v>3522.145328096362</v>
+      </c>
+      <c r="S9">
+        <v>0.1949938661601922</v>
+      </c>
+      <c r="T9">
+        <v>0.1949938661601922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.49244066666667</v>
+      </c>
+      <c r="H10">
+        <v>34.477322</v>
+      </c>
+      <c r="I10">
+        <v>0.3512074779672769</v>
+      </c>
+      <c r="J10">
+        <v>0.351207477967277</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.52994333333334</v>
+      </c>
+      <c r="N10">
+        <v>67.58983000000001</v>
+      </c>
+      <c r="O10">
+        <v>0.3673371086668564</v>
+      </c>
+      <c r="P10">
+        <v>0.3673371086668564</v>
+      </c>
+      <c r="Q10">
+        <v>258.9240369816956</v>
+      </c>
+      <c r="R10">
+        <v>2330.31633283526</v>
+      </c>
+      <c r="S10">
+        <v>0.1290115394986782</v>
+      </c>
+      <c r="T10">
+        <v>0.1290115394986782</v>
       </c>
     </row>
   </sheetData>
